--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1974285.590018719</v>
+        <v>1973888.997165042</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.0247275234</v>
+        <v>261098.0247275253</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736549</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -671,7 +671,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>191.8385657235614</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>73.62724066441501</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>57.06583415687597</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>137.4706789765933</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>28.24105331014633</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>60.52568965139838</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>74.73196457864177</v>
       </c>
       <c r="F5" t="n">
-        <v>15.03575280789924</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>107.9103771062847</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1023,19 +1023,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>132.6788221027015</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.5038758621203</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14.50387586212019</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -1133,7 +1133,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>76.47369209631</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>65.52027432981757</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -1224,13 +1224,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>35.15343343243143</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1275,7 +1275,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.78874461372734</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>58.0633291268696</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.66555961684</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>116.8509570712088</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
         <v>298.5127811721452</v>
@@ -1388,7 +1388,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508324</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548094</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>93.92186578203135</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655129</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="12">
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>85.17512701824161</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1506,10 +1506,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>112.6815008179406</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>227.0500842720822</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932732</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C13" t="n">
-        <v>54.4896443347278</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230619</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808564</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627195</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761978</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H13" t="n">
-        <v>44.3487532603102</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513955</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355686</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214061</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1585,13 +1585,13 @@
         <v>170.8881716075824</v>
       </c>
       <c r="V13" t="n">
-        <v>144.6977858889529</v>
+        <v>144.697785888952</v>
       </c>
       <c r="W13" t="n">
         <v>169.8646719595662</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553691</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
         <v>106.384641711437</v>
@@ -1613,19 +1613,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>195.6406119378852</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508321</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>120.650665825844</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
         <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>1.602097357693901</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>85.17512701824161</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808561</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627192</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1898,7 +1898,7 @@
         <v>48.43219606606982</v>
       </c>
       <c r="U17" t="n">
-        <v>78.65332218291748</v>
+        <v>78.65332218291678</v>
       </c>
       <c r="V17" t="n">
         <v>159.9263206227889</v>
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>2.158423661798626</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>85.17512701824161</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.8895042301202</v>
+        <v>55.45792666111176</v>
       </c>
       <c r="T19" t="n">
         <v>57.16400291224883</v>
@@ -2059,7 +2059,7 @@
         <v>110.635176375562</v>
       </c>
       <c r="V19" t="n">
-        <v>102.0132130879241</v>
+        <v>84.4447906569325</v>
       </c>
       <c r="W19" t="n">
         <v>109.6116767275458</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.67352487572065</v>
+        <v>11.67352487572046</v>
       </c>
       <c r="T20" t="n">
         <v>48.43219606606982</v>
@@ -2141,7 +2141,7 @@
         <v>159.9263206227889</v>
       </c>
       <c r="W20" t="n">
-        <v>185.2264201007459</v>
+        <v>185.2264201007466</v>
       </c>
       <c r="X20" t="n">
         <v>204.5266783334925</v>
@@ -2175,10 +2175,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.602097357693901</v>
+        <v>41.35415002045892</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>101.0969025405676</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>41.35415002045892</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>165.217611182741</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2612,10 +2612,10 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>98.5378441388454</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
         <v>264.7796735655128</v>
@@ -2643,10 +2643,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>118.7813687841211</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2792,13 +2792,13 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>157.8783188510421</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2843,16 +2843,16 @@
         <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>143.0427838563494</v>
       </c>
       <c r="X29" t="n">
         <v>264.7796735655128</v>
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133631</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133644</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1810.77304823856</v>
+        <v>1033.90867942538</v>
       </c>
       <c r="C2" t="n">
-        <v>1810.77304823856</v>
+        <v>1033.90867942538</v>
       </c>
       <c r="D2" t="n">
-        <v>1437.949083465784</v>
+        <v>1033.90867942538</v>
       </c>
       <c r="E2" t="n">
-        <v>1043.163363571891</v>
+        <v>639.1229595314867</v>
       </c>
       <c r="F2" t="n">
-        <v>629.0121728820611</v>
+        <v>224.9717688416571</v>
       </c>
       <c r="G2" t="n">
-        <v>212.9081863362492</v>
+        <v>212.9081863362491</v>
       </c>
       <c r="H2" t="n">
-        <v>212.9081863362492</v>
+        <v>212.9081863362491</v>
       </c>
       <c r="I2" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J2" t="n">
-        <v>40.09098754504518</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K2" t="n">
-        <v>257.4997446110851</v>
+        <v>352.2299038626336</v>
       </c>
       <c r="L2" t="n">
-        <v>605.3851176960313</v>
+        <v>700.1152769475798</v>
       </c>
       <c r="M2" t="n">
-        <v>998.6242839491192</v>
+        <v>1093.354443200668</v>
       </c>
       <c r="N2" t="n">
-        <v>1376.955642636835</v>
+        <v>1471.685801888383</v>
       </c>
       <c r="O2" t="n">
-        <v>1681.960227109669</v>
+        <v>1776.690386361217</v>
       </c>
       <c r="P2" t="n">
-        <v>1910.117123565722</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="Q2" t="n">
-        <v>2004.549377252259</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R2" t="n">
-        <v>2004.549377252259</v>
+        <v>1913.91109074811</v>
       </c>
       <c r="S2" t="n">
-        <v>2004.549377252259</v>
+        <v>1726.682115378464</v>
       </c>
       <c r="T2" t="n">
-        <v>1810.77304823856</v>
+        <v>1502.323169109475</v>
       </c>
       <c r="U2" t="n">
-        <v>1810.77304823856</v>
+        <v>1427.952218943399</v>
       </c>
       <c r="V2" t="n">
-        <v>1810.77304823856</v>
+        <v>1427.952218943399</v>
       </c>
       <c r="W2" t="n">
-        <v>1810.77304823856</v>
+        <v>1427.952218943399</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.77304823856</v>
+        <v>1427.952218943399</v>
       </c>
       <c r="Y2" t="n">
-        <v>1810.77304823856</v>
+        <v>1427.952218943399</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>633.5371010941725</v>
+        <v>613.6858492910633</v>
       </c>
       <c r="C3" t="n">
-        <v>471.8334283351272</v>
+        <v>451.982176532018</v>
       </c>
       <c r="D3" t="n">
-        <v>471.8334283351272</v>
+        <v>313.1435395222301</v>
       </c>
       <c r="E3" t="n">
-        <v>471.8334283351272</v>
+        <v>166.1155295791013</v>
       </c>
       <c r="F3" t="n">
-        <v>337.1396302850015</v>
+        <v>166.1155295791013</v>
       </c>
       <c r="G3" t="n">
-        <v>208.4111303082861</v>
+        <v>166.1155295791013</v>
       </c>
       <c r="H3" t="n">
-        <v>108.4732728549842</v>
+        <v>108.4732728549841</v>
       </c>
       <c r="I3" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J3" t="n">
         <v>100.3451340781513</v>
@@ -4413,46 +4413,46 @@
         <v>329.83568663834</v>
       </c>
       <c r="L3" t="n">
-        <v>695.6575318084556</v>
+        <v>329.83568663834</v>
       </c>
       <c r="M3" t="n">
-        <v>814.1275363224768</v>
+        <v>656.3559065368805</v>
       </c>
       <c r="N3" t="n">
-        <v>1310.253507192411</v>
+        <v>1152.481877406814</v>
       </c>
       <c r="O3" t="n">
-        <v>1702.453457976562</v>
+        <v>1544.681828190965</v>
       </c>
       <c r="P3" t="n">
-        <v>2004.549377252259</v>
+        <v>1846.777747466662</v>
       </c>
       <c r="Q3" t="n">
-        <v>2004.549377252259</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.765108347205</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="S3" t="n">
-        <v>1791.965621359945</v>
+        <v>1851.749890264997</v>
       </c>
       <c r="T3" t="n">
-        <v>1791.965621359945</v>
+        <v>1851.749890264997</v>
       </c>
       <c r="U3" t="n">
-        <v>1653.106349666416</v>
+        <v>1633.255097863307</v>
       </c>
       <c r="V3" t="n">
-        <v>1424.71072711475</v>
+        <v>1404.859475311641</v>
       </c>
       <c r="W3" t="n">
-        <v>1183.39485834806</v>
+        <v>1163.543606544951</v>
       </c>
       <c r="X3" t="n">
-        <v>985.4778702258546</v>
+        <v>965.6266184227453</v>
       </c>
       <c r="Y3" t="n">
-        <v>792.9565438754335</v>
+        <v>773.1052920723241</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
       <c r="C4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
       <c r="D4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
       <c r="E4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
       <c r="F4" t="n">
-        <v>272.8775870030892</v>
+        <v>209.0107361771951</v>
       </c>
       <c r="G4" t="n">
-        <v>272.8775870030892</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="H4" t="n">
-        <v>244.3512705281939</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="I4" t="n">
-        <v>100.1482261308725</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J4" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="K4" t="n">
-        <v>73.69517528968859</v>
+        <v>73.69517528968854</v>
       </c>
       <c r="L4" t="n">
-        <v>174.3022546899481</v>
+        <v>174.302254689948</v>
       </c>
       <c r="M4" t="n">
         <v>292.2957608175498</v>
       </c>
       <c r="N4" t="n">
-        <v>410.7181025671502</v>
+        <v>410.7181025671501</v>
       </c>
       <c r="O4" t="n">
-        <v>509.1817490628399</v>
+        <v>509.1817490628398</v>
       </c>
       <c r="P4" t="n">
         <v>572.1502327909776</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.6128914446666</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="R4" t="n">
-        <v>533.6128914446666</v>
+        <v>422.6284514053558</v>
       </c>
       <c r="S4" t="n">
-        <v>533.6128914446666</v>
+        <v>361.491391151418</v>
       </c>
       <c r="T4" t="n">
-        <v>533.6128914446666</v>
+        <v>361.491391151418</v>
       </c>
       <c r="U4" t="n">
-        <v>533.6128914446666</v>
+        <v>361.491391151418</v>
       </c>
       <c r="V4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
       <c r="W4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8775870030892</v>
+        <v>361.491391151418</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1389.702841274408</v>
+        <v>1247.437832823469</v>
       </c>
       <c r="C5" t="n">
-        <v>1007.769082607215</v>
+        <v>1247.437832823469</v>
       </c>
       <c r="D5" t="n">
-        <v>634.9451178344384</v>
+        <v>874.6138680506924</v>
       </c>
       <c r="E5" t="n">
-        <v>240.1593979405453</v>
+        <v>799.1270351429735</v>
       </c>
       <c r="F5" t="n">
-        <v>224.9717688416571</v>
+        <v>384.9758444531438</v>
       </c>
       <c r="G5" t="n">
-        <v>212.9081863362492</v>
+        <v>372.9122619477359</v>
       </c>
       <c r="H5" t="n">
-        <v>212.9081863362492</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="I5" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J5" t="n">
         <v>112.0895318178508</v>
@@ -4583,34 +4583,34 @@
         <v>1776.690386361217</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.117123565722</v>
+        <v>1910.117123565719</v>
       </c>
       <c r="Q5" t="n">
-        <v>2004.549377252259</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R5" t="n">
-        <v>1913.911090748112</v>
+        <v>1913.91109074811</v>
       </c>
       <c r="S5" t="n">
-        <v>1726.682115378466</v>
+        <v>1726.682115378464</v>
       </c>
       <c r="T5" t="n">
-        <v>1726.682115378466</v>
+        <v>1502.323169109475</v>
       </c>
       <c r="U5" t="n">
-        <v>1726.682115378466</v>
+        <v>1247.437832823469</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.702841274408</v>
+        <v>1247.437832823469</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.702841274408</v>
+        <v>1247.437832823469</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.702841274408</v>
+        <v>1247.437832823469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1389.702841274408</v>
+        <v>1247.437832823469</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518.0159635392565</v>
+        <v>919.4037480470892</v>
       </c>
       <c r="C6" t="n">
-        <v>356.3122907802112</v>
+        <v>757.7000752880439</v>
       </c>
       <c r="D6" t="n">
-        <v>217.4736537704233</v>
+        <v>618.8614382782559</v>
       </c>
       <c r="E6" t="n">
-        <v>108.4732728549842</v>
+        <v>471.8334283351272</v>
       </c>
       <c r="F6" t="n">
-        <v>108.4732728549842</v>
+        <v>337.1396302850015</v>
       </c>
       <c r="G6" t="n">
-        <v>108.4732728549842</v>
+        <v>208.4111303082861</v>
       </c>
       <c r="H6" t="n">
-        <v>108.4732728549842</v>
+        <v>108.4732728549841</v>
       </c>
       <c r="I6" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J6" t="n">
-        <v>40.09098754504518</v>
+        <v>100.3451340781513</v>
       </c>
       <c r="K6" t="n">
-        <v>269.5815401052338</v>
+        <v>100.3451340781513</v>
       </c>
       <c r="L6" t="n">
-        <v>635.4033852753495</v>
+        <v>171.3225530266541</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.436738785576</v>
+        <v>656.3559065368805</v>
       </c>
       <c r="N6" t="n">
-        <v>1612.349426468108</v>
+        <v>1152.481877406814</v>
       </c>
       <c r="O6" t="n">
-        <v>2004.549377252259</v>
+        <v>1544.681828190965</v>
       </c>
       <c r="P6" t="n">
-        <v>2004.549377252259</v>
+        <v>1846.777747466662</v>
       </c>
       <c r="Q6" t="n">
-        <v>2004.549377252259</v>
+        <v>2004.549377252256</v>
       </c>
       <c r="R6" t="n">
-        <v>1944.765108347205</v>
+        <v>1944.765108347202</v>
       </c>
       <c r="S6" t="n">
-        <v>1944.765108347205</v>
+        <v>1791.965621359942</v>
       </c>
       <c r="T6" t="n">
-        <v>1756.08000451319</v>
+        <v>1603.280517525928</v>
       </c>
       <c r="U6" t="n">
-        <v>1537.5852121115</v>
+        <v>1469.261505300977</v>
       </c>
       <c r="V6" t="n">
-        <v>1309.189589559834</v>
+        <v>1469.261505300977</v>
       </c>
       <c r="W6" t="n">
-        <v>1067.873720793144</v>
+        <v>1469.261505300977</v>
       </c>
       <c r="X6" t="n">
-        <v>869.9567326709385</v>
+        <v>1271.344517178771</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.4354063205174</v>
+        <v>1078.82319082835</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="C7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="D7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="E7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="F7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="G7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="H7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="I7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="J7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="K7" t="n">
-        <v>73.69517528968859</v>
+        <v>73.69517528968854</v>
       </c>
       <c r="L7" t="n">
-        <v>174.3022546899481</v>
+        <v>174.302254689948</v>
       </c>
       <c r="M7" t="n">
         <v>292.2957608175498</v>
       </c>
       <c r="N7" t="n">
-        <v>410.7181025671502</v>
+        <v>410.7181025671501</v>
       </c>
       <c r="O7" t="n">
-        <v>509.1817490628399</v>
+        <v>509.1817490628398</v>
       </c>
       <c r="P7" t="n">
         <v>572.1502327909776</v>
@@ -4747,28 +4747,28 @@
         <v>572.1502327909776</v>
       </c>
       <c r="R7" t="n">
-        <v>572.1502327909776</v>
+        <v>557.4998531322702</v>
       </c>
       <c r="S7" t="n">
-        <v>572.1502327909776</v>
+        <v>557.4998531322702</v>
       </c>
       <c r="T7" t="n">
-        <v>572.1502327909776</v>
+        <v>557.4998531322702</v>
       </c>
       <c r="U7" t="n">
-        <v>572.1502327909776</v>
+        <v>557.4998531322702</v>
       </c>
       <c r="V7" t="n">
-        <v>557.4998531322703</v>
+        <v>557.4998531322702</v>
       </c>
       <c r="W7" t="n">
         <v>271.3434516496694</v>
       </c>
       <c r="X7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.09098754504518</v>
+        <v>40.09098754504513</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>641.0562280876408</v>
+        <v>141.4447788886692</v>
       </c>
       <c r="C8" t="n">
-        <v>641.0562280876408</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D8" t="n">
-        <v>641.0562280876408</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>641.0562280876408</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2035.030709777317</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1810.671763508328</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1810.671763508328</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1810.671763508328</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W8" t="n">
-        <v>1810.671763508328</v>
+        <v>1311.060314309357</v>
       </c>
       <c r="X8" t="n">
-        <v>1428.641623029822</v>
+        <v>929.0301738308503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1035.09976760566</v>
+        <v>535.4883184066883</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>659.7968924819045</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0932197228592</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>359.2545827130713</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>212.2265727699425</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>77.53277471981684</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>1011.737661613587</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>819.2163352631653</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.7211330504374</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>347.1051635121177</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>194.0332703398804</v>
+        <v>515.4336739462533</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1283.322104419842</v>
+        <v>1464.866100585008</v>
       </c>
       <c r="C11" t="n">
-        <v>1283.322104419842</v>
+        <v>1464.866100585008</v>
       </c>
       <c r="D11" t="n">
-        <v>1025.074064402832</v>
+        <v>1206.618060567998</v>
       </c>
       <c r="E11" t="n">
-        <v>744.8642692647053</v>
+        <v>926.4082654298709</v>
       </c>
       <c r="F11" t="n">
         <v>626.8329994958076</v>
       </c>
       <c r="G11" t="n">
-        <v>325.304937705762</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="H11" t="n">
         <v>107.0595880588376</v>
@@ -5039,52 +5039,52 @@
         <v>48.81831402339999</v>
       </c>
       <c r="J11" t="n">
-        <v>205.6726895273767</v>
+        <v>120.8168582962057</v>
       </c>
       <c r="K11" t="n">
-        <v>558.1089254252861</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L11" t="n">
-        <v>905.9942985102324</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M11" t="n">
-        <v>1411.529328616447</v>
+        <v>1326.673497385276</v>
       </c>
       <c r="N11" t="n">
-        <v>1789.860687304163</v>
+        <v>1705.004856072992</v>
       </c>
       <c r="O11" t="n">
-        <v>2094.865271776996</v>
+        <v>2118.326551027409</v>
       </c>
       <c r="P11" t="n">
-        <v>2323.02216823305</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q11" t="n">
-        <v>2417.454421919587</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R11" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.915701169999</v>
+        <v>2368.26265055612</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.915701169999</v>
+        <v>2258.479629042897</v>
       </c>
       <c r="U11" t="n">
-        <v>2300.60628963976</v>
+        <v>2118.170217512657</v>
       </c>
       <c r="V11" t="n">
-        <v>2078.202940291468</v>
+        <v>2118.170217512657</v>
       </c>
       <c r="W11" t="n">
-        <v>1830.243934904835</v>
+        <v>2023.299646015656</v>
       </c>
       <c r="X11" t="n">
-        <v>1562.789719182095</v>
+        <v>2023.299646015656</v>
       </c>
       <c r="Y11" t="n">
-        <v>1562.789719182095</v>
+        <v>1744.33371534726</v>
       </c>
     </row>
     <row r="12">
@@ -5124,37 +5124,37 @@
         <v>338.5630131166948</v>
       </c>
       <c r="L12" t="n">
-        <v>592.5492016912089</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M12" t="n">
-        <v>1077.582555201435</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N12" t="n">
-        <v>1588.848201324557</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.048152108708</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.144071384405</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.915701169999</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.915701169999</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.880219333392</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.646841443671</v>
       </c>
       <c r="U12" t="n">
-        <v>1947.700323097687</v>
+        <v>1821.152049041981</v>
       </c>
       <c r="V12" t="n">
-        <v>1719.304700546021</v>
+        <v>1707.332351246081</v>
       </c>
       <c r="W12" t="n">
         <v>1477.988831779331</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.4598109066942</v>
+        <v>346.4598109066941</v>
       </c>
       <c r="C13" t="n">
         <v>291.4197661241407</v>
@@ -5182,40 +5182,40 @@
         <v>252.9237977076698</v>
       </c>
       <c r="E13" t="n">
-        <v>215.4907082247551</v>
+        <v>215.490708224755</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062986</v>
+        <v>177.5859780062985</v>
       </c>
       <c r="G13" t="n">
-        <v>123.242154129915</v>
+        <v>123.2421541299149</v>
       </c>
       <c r="H13" t="n">
-        <v>78.44543366495515</v>
+        <v>78.44543366495509</v>
       </c>
       <c r="I13" t="n">
         <v>48.81831402339999</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2520783385572</v>
+        <v>102.2520783385573</v>
       </c>
       <c r="K13" t="n">
-        <v>248.1521299363272</v>
+        <v>248.1521299363274</v>
       </c>
       <c r="L13" t="n">
-        <v>461.0550731897134</v>
+        <v>461.0550731897135</v>
       </c>
       <c r="M13" t="n">
-        <v>691.3444431704417</v>
+        <v>691.3444431704418</v>
       </c>
       <c r="N13" t="n">
-        <v>922.0626487731686</v>
+        <v>922.0626487731688</v>
       </c>
       <c r="O13" t="n">
         <v>1132.822159121985</v>
       </c>
       <c r="P13" t="n">
-        <v>1308.086506703249</v>
+        <v>1308.08650670325</v>
       </c>
       <c r="Q13" t="n">
         <v>1382.611922302857</v>
@@ -5227,22 +5227,22 @@
         <v>1248.532227832455</v>
       </c>
       <c r="T13" t="n">
-        <v>1129.9291994039</v>
+        <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
         <v>957.3148846487668</v>
       </c>
       <c r="V13" t="n">
-        <v>811.1555049629559</v>
+        <v>811.1555049629562</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361215</v>
+        <v>639.5750282361219</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872642</v>
+        <v>522.8984888872641</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.4392548353077</v>
+        <v>415.4392548353075</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1628.312652441625</v>
+        <v>1452.014139358307</v>
       </c>
       <c r="C14" t="n">
-        <v>1360.954818530199</v>
+        <v>1184.656305446881</v>
       </c>
       <c r="D14" t="n">
-        <v>1102.70677851319</v>
+        <v>926.4082654298708</v>
       </c>
       <c r="E14" t="n">
-        <v>822.4969833750629</v>
+        <v>926.4082654298708</v>
       </c>
       <c r="F14" t="n">
-        <v>522.9217174409996</v>
+        <v>626.8329994958075</v>
       </c>
       <c r="G14" t="n">
         <v>325.3049377057619</v>
@@ -5276,19 +5276,19 @@
         <v>48.81831402339999</v>
       </c>
       <c r="J14" t="n">
-        <v>233.1127221493323</v>
+        <v>120.8168582962057</v>
       </c>
       <c r="K14" t="n">
-        <v>585.5489580472417</v>
+        <v>473.2530941941151</v>
       </c>
       <c r="L14" t="n">
-        <v>1018.290162363359</v>
+        <v>821.1384672790614</v>
       </c>
       <c r="M14" t="n">
-        <v>1411.529328616447</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N14" t="n">
-        <v>1789.860687304163</v>
+        <v>1705.004856072992</v>
       </c>
       <c r="O14" t="n">
         <v>2094.865271776996</v>
@@ -5306,22 +5306,22 @@
         <v>2368.26265055612</v>
       </c>
       <c r="T14" t="n">
-        <v>2258.479629042897</v>
+        <v>2368.26265055612</v>
       </c>
       <c r="U14" t="n">
-        <v>2118.170217512657</v>
+        <v>2246.393291136075</v>
       </c>
       <c r="V14" t="n">
-        <v>1895.766868164365</v>
+        <v>2246.393291136075</v>
       </c>
       <c r="W14" t="n">
-        <v>1895.766868164365</v>
+        <v>1998.434285749443</v>
       </c>
       <c r="X14" t="n">
-        <v>1628.312652441625</v>
+        <v>1730.980070026702</v>
       </c>
       <c r="Y14" t="n">
-        <v>1628.312652441625</v>
+        <v>1452.014139358307</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>861.3670693747918</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C15" t="n">
-        <v>699.6633966157465</v>
+        <v>766.4274017663987</v>
       </c>
       <c r="D15" t="n">
-        <v>560.8247596059585</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E15" t="n">
-        <v>413.7967496628298</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F15" t="n">
-        <v>279.1029516127041</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G15" t="n">
-        <v>150.3744516359887</v>
+        <v>217.138456786641</v>
       </c>
       <c r="H15" t="n">
-        <v>50.43659418268676</v>
+        <v>117.200599333339</v>
       </c>
       <c r="I15" t="n">
         <v>48.81831402339999</v>
@@ -5382,25 +5382,25 @@
         <v>2440.915701169999</v>
       </c>
       <c r="S15" t="n">
-        <v>2288.11621418274</v>
+        <v>2354.880219333392</v>
       </c>
       <c r="T15" t="n">
-        <v>2099.431110348725</v>
+        <v>2166.195115499377</v>
       </c>
       <c r="U15" t="n">
-        <v>1880.936317947035</v>
+        <v>1947.700323097687</v>
       </c>
       <c r="V15" t="n">
-        <v>1652.540695395369</v>
+        <v>1719.304700546021</v>
       </c>
       <c r="W15" t="n">
-        <v>1411.224826628679</v>
+        <v>1477.988831779331</v>
       </c>
       <c r="X15" t="n">
-        <v>1213.307838506474</v>
+        <v>1280.071843657126</v>
       </c>
       <c r="Y15" t="n">
-        <v>1020.786512156053</v>
+        <v>1087.550517306705</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.4598109066938</v>
+        <v>346.4598109066933</v>
       </c>
       <c r="C16" t="n">
-        <v>291.4197661241405</v>
+        <v>291.4197661241403</v>
       </c>
       <c r="D16" t="n">
         <v>252.9237977076696</v>
       </c>
       <c r="E16" t="n">
-        <v>215.4907082247548</v>
+        <v>215.4907082247545</v>
       </c>
       <c r="F16" t="n">
-        <v>177.5859780062983</v>
+        <v>177.5859780062978</v>
       </c>
       <c r="G16" t="n">
-        <v>123.2421541299148</v>
+        <v>123.242154129914</v>
       </c>
       <c r="H16" t="n">
-        <v>78.44543366495509</v>
+        <v>78.44543366495459</v>
       </c>
       <c r="I16" t="n">
         <v>48.81831402339999</v>
@@ -5437,16 +5437,16 @@
         <v>102.2520783385571</v>
       </c>
       <c r="K16" t="n">
-        <v>248.1521299363271</v>
+        <v>248.1521299363266</v>
       </c>
       <c r="L16" t="n">
-        <v>461.0550731897132</v>
+        <v>461.0550731897128</v>
       </c>
       <c r="M16" t="n">
-        <v>691.3444431704415</v>
+        <v>691.3444431704413</v>
       </c>
       <c r="N16" t="n">
-        <v>922.0626487731683</v>
+        <v>922.0626487731686</v>
       </c>
       <c r="O16" t="n">
         <v>1132.822159121985</v>
@@ -5458,28 +5458,28 @@
         <v>1382.611922302857</v>
       </c>
       <c r="R16" t="n">
-        <v>1347.666065673002</v>
+        <v>1347.666065673001</v>
       </c>
       <c r="S16" t="n">
-        <v>1248.532227832456</v>
+        <v>1248.532227832455</v>
       </c>
       <c r="T16" t="n">
-        <v>1129.929199403901</v>
+        <v>1129.9291994039</v>
       </c>
       <c r="U16" t="n">
-        <v>957.314884648767</v>
+        <v>957.3148846487668</v>
       </c>
       <c r="V16" t="n">
-        <v>811.155504962956</v>
+        <v>811.1555049629558</v>
       </c>
       <c r="W16" t="n">
-        <v>639.5750282361216</v>
+        <v>639.5750282361213</v>
       </c>
       <c r="X16" t="n">
-        <v>522.8984888872636</v>
+        <v>522.8984888872635</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.4392548353072</v>
+        <v>415.4392548353069</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.812992388145</v>
+        <v>1308.812992388146</v>
       </c>
       <c r="C17" t="n">
-        <v>1102.316769822194</v>
+        <v>1102.316769822195</v>
       </c>
       <c r="D17" t="n">
-        <v>904.9303411506594</v>
+        <v>904.9303411506596</v>
       </c>
       <c r="E17" t="n">
-        <v>685.5821573580077</v>
+        <v>685.582157358008</v>
       </c>
       <c r="F17" t="n">
-        <v>446.8685027694196</v>
+        <v>446.8685027694198</v>
       </c>
       <c r="G17" t="n">
         <v>206.2020523248492</v>
@@ -5519,13 +5519,13 @@
         <v>363.5254229385562</v>
       </c>
       <c r="L17" t="n">
-        <v>711.4107960235024</v>
+        <v>786.6933679508319</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.64996227659</v>
+        <v>1351.878863336747</v>
       </c>
       <c r="N17" t="n">
-        <v>1558.263892891636</v>
+        <v>1730.210222024462</v>
       </c>
       <c r="O17" t="n">
         <v>2035.214806497296</v>
@@ -5552,13 +5552,13 @@
         <v>2139.213313546266</v>
       </c>
       <c r="W17" t="n">
-        <v>1952.115919505108</v>
+        <v>1952.115919505109</v>
       </c>
       <c r="X17" t="n">
-        <v>1745.523315127843</v>
+        <v>1745.523315127844</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.418995804923</v>
+        <v>1527.418995804924</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>801.5828004697373</v>
+        <v>928.131074525444</v>
       </c>
       <c r="C18" t="n">
-        <v>639.879127710692</v>
+        <v>766.4274017663987</v>
       </c>
       <c r="D18" t="n">
-        <v>501.0404907009041</v>
+        <v>627.5887647566108</v>
       </c>
       <c r="E18" t="n">
-        <v>354.0124807577753</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F18" t="n">
-        <v>219.3186827076497</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G18" t="n">
         <v>217.138456786641</v>
@@ -5616,28 +5616,28 @@
         <v>2440.915701169999</v>
       </c>
       <c r="R18" t="n">
-        <v>2381.131432264945</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S18" t="n">
-        <v>2228.331945277685</v>
+        <v>2354.880219333392</v>
       </c>
       <c r="T18" t="n">
-        <v>2039.646841443671</v>
+        <v>2166.195115499377</v>
       </c>
       <c r="U18" t="n">
-        <v>1821.152049041981</v>
+        <v>1947.700323097687</v>
       </c>
       <c r="V18" t="n">
-        <v>1592.756426490315</v>
+        <v>1719.304700546021</v>
       </c>
       <c r="W18" t="n">
-        <v>1351.440557723625</v>
+        <v>1477.988831779331</v>
       </c>
       <c r="X18" t="n">
-        <v>1153.523569601419</v>
+        <v>1280.071843657126</v>
       </c>
       <c r="Y18" t="n">
-        <v>961.0022432509983</v>
+        <v>1087.550517306705</v>
       </c>
     </row>
     <row r="19">
@@ -5698,13 +5698,13 @@
         <v>580.8775592693326</v>
       </c>
       <c r="S19" t="n">
-        <v>542.6053327742617</v>
+        <v>524.8594515308358</v>
       </c>
       <c r="T19" t="n">
-        <v>484.8639156911821</v>
+        <v>467.1180344477561</v>
       </c>
       <c r="U19" t="n">
-        <v>373.1112122815235</v>
+        <v>355.3653310380976</v>
       </c>
       <c r="V19" t="n">
         <v>270.0675626977617</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1308.812992388146</v>
+        <v>1308.812992388145</v>
       </c>
       <c r="C20" t="n">
         <v>1102.316769822194</v>
       </c>
       <c r="D20" t="n">
-        <v>904.9303411506594</v>
+        <v>904.930341150659</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580077</v>
+        <v>685.5821573580074</v>
       </c>
       <c r="F20" t="n">
         <v>446.8685027694196</v>
@@ -5750,25 +5750,25 @@
         <v>51.38650662096779</v>
       </c>
       <c r="J20" t="n">
-        <v>123.3850508937734</v>
+        <v>295.3313800266002</v>
       </c>
       <c r="K20" t="n">
-        <v>363.5254229385562</v>
+        <v>535.471752071383</v>
       </c>
       <c r="L20" t="n">
-        <v>711.4107960235024</v>
+        <v>958.6396970836588</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.64996227659</v>
+        <v>1351.878863336747</v>
       </c>
       <c r="N20" t="n">
-        <v>1482.981320964306</v>
+        <v>1730.210222024462</v>
       </c>
       <c r="O20" t="n">
-        <v>1787.98590543714</v>
+        <v>2035.214806497296</v>
       </c>
       <c r="P20" t="n">
-        <v>2091.425373820523</v>
+        <v>2263.37170295335</v>
       </c>
       <c r="Q20" t="n">
         <v>2357.803956639887</v>
@@ -5792,7 +5792,7 @@
         <v>1952.115919505109</v>
       </c>
       <c r="X20" t="n">
-        <v>1745.523315127844</v>
+        <v>1745.523315127843</v>
       </c>
       <c r="Y20" t="n">
         <v>1527.418995804923</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.3670693747918</v>
+        <v>801.5828004697373</v>
       </c>
       <c r="C21" t="n">
-        <v>699.6633966157465</v>
+        <v>639.879127710692</v>
       </c>
       <c r="D21" t="n">
-        <v>560.8247596059585</v>
+        <v>501.0404907009041</v>
       </c>
       <c r="E21" t="n">
-        <v>413.7967496628298</v>
+        <v>354.0124807577753</v>
       </c>
       <c r="F21" t="n">
-        <v>279.1029516127041</v>
+        <v>219.3186827076497</v>
       </c>
       <c r="G21" t="n">
-        <v>150.3744516359887</v>
+        <v>90.59018273093426</v>
       </c>
       <c r="H21" t="n">
-        <v>50.43659418268676</v>
+        <v>90.59018273093426</v>
       </c>
       <c r="I21" t="n">
         <v>48.81831402339999</v>
@@ -5853,28 +5853,28 @@
         <v>2440.915701169999</v>
       </c>
       <c r="R21" t="n">
-        <v>2440.915701169999</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S21" t="n">
-        <v>2288.11621418274</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T21" t="n">
-        <v>2099.431110348725</v>
+        <v>2039.646841443671</v>
       </c>
       <c r="U21" t="n">
-        <v>1880.936317947035</v>
+        <v>1821.152049041981</v>
       </c>
       <c r="V21" t="n">
-        <v>1652.540695395369</v>
+        <v>1592.756426490315</v>
       </c>
       <c r="W21" t="n">
-        <v>1411.224826628679</v>
+        <v>1351.440557723625</v>
       </c>
       <c r="X21" t="n">
-        <v>1213.307838506474</v>
+        <v>1153.523569601419</v>
       </c>
       <c r="Y21" t="n">
-        <v>1020.786512156053</v>
+        <v>961.0022432509983</v>
       </c>
     </row>
     <row r="22">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1308.812992388146</v>
+        <v>1308.812992388145</v>
       </c>
       <c r="C23" t="n">
         <v>1102.316769822194</v>
@@ -5990,22 +5990,22 @@
         <v>123.3850508937734</v>
       </c>
       <c r="K23" t="n">
-        <v>438.8079948658858</v>
+        <v>363.5254229385562</v>
       </c>
       <c r="L23" t="n">
-        <v>958.6396970836588</v>
+        <v>711.4107960235024</v>
       </c>
       <c r="M23" t="n">
-        <v>1351.878863336747</v>
+        <v>1104.64996227659</v>
       </c>
       <c r="N23" t="n">
-        <v>1730.210222024462</v>
+        <v>1654.927650097133</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.214806497296</v>
+        <v>1959.932234569967</v>
       </c>
       <c r="P23" t="n">
-        <v>2263.37170295335</v>
+        <v>2188.08913102602</v>
       </c>
       <c r="Q23" t="n">
         <v>2357.803956639887</v>
@@ -6026,10 +6026,10 @@
         <v>2139.213313546266</v>
       </c>
       <c r="W23" t="n">
-        <v>1952.115919505109</v>
+        <v>1952.115919505108</v>
       </c>
       <c r="X23" t="n">
-        <v>1745.523315127844</v>
+        <v>1745.523315127843</v>
       </c>
       <c r="Y23" t="n">
         <v>1527.418995804923</v>
@@ -6057,22 +6057,22 @@
         <v>219.3186827076497</v>
       </c>
       <c r="G24" t="n">
-        <v>117.200599333339</v>
+        <v>90.59018273093426</v>
       </c>
       <c r="H24" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339999</v>
       </c>
       <c r="I24" t="n">
         <v>48.81831402339999</v>
       </c>
       <c r="J24" t="n">
-        <v>109.0724605565061</v>
+        <v>48.81831402339999</v>
       </c>
       <c r="K24" t="n">
-        <v>338.5630131166948</v>
+        <v>226.7273565210932</v>
       </c>
       <c r="L24" t="n">
-        <v>704.3848582868104</v>
+        <v>592.5492016912089</v>
       </c>
       <c r="M24" t="n">
         <v>1077.582555201435</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1743.233621313474</v>
+        <v>1651.872057238627</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.875787402048</v>
+        <v>1384.514223327201</v>
       </c>
       <c r="D26" t="n">
         <v>1217.627747385038</v>
       </c>
       <c r="E26" t="n">
-        <v>937.4179522469111</v>
+        <v>937.4179522469113</v>
       </c>
       <c r="F26" t="n">
-        <v>637.8426863128478</v>
+        <v>637.8426863128481</v>
       </c>
       <c r="G26" t="n">
-        <v>336.3146245228022</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0692748758781</v>
+        <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82800084044055</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J26" t="n">
         <v>244.1224089663729</v>
@@ -6233,43 +6233,43 @@
         <v>1056.739881802355</v>
       </c>
       <c r="M26" t="n">
-        <v>1512.830214055968</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N26" t="n">
-        <v>2003.457436596811</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O26" t="n">
-        <v>2420.757884922771</v>
+        <v>2470.202582775373</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231951</v>
+        <v>2761.210645231954</v>
       </c>
       <c r="Q26" t="n">
-        <v>2967.938762771615</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R26" t="n">
-        <v>2991.400042022028</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S26" t="n">
-        <v>2918.746991408148</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T26" t="n">
-        <v>2808.963969894926</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U26" t="n">
-        <v>2668.654558364686</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V26" t="n">
-        <v>2569.121382466863</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W26" t="n">
-        <v>2569.121382466863</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X26" t="n">
-        <v>2301.667166744122</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y26" t="n">
-        <v>2022.701236075727</v>
+        <v>1651.872057238627</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>476.8578241704183</v>
       </c>
       <c r="F27" t="n">
-        <v>356.8766435803969</v>
+        <v>342.1640261202926</v>
       </c>
       <c r="G27" t="n">
         <v>228.1481436036815</v>
       </c>
       <c r="H27" t="n">
-        <v>128.2102861503795</v>
+        <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.82800084044055</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J27" t="n">
         <v>120.0821473735467</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.4694977237345</v>
+        <v>357.4694977237344</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411812</v>
+        <v>302.4294529411811</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247104</v>
+        <v>263.9334845247103</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417956</v>
+        <v>226.5003950417955</v>
       </c>
       <c r="F28" t="n">
         <v>188.5956648233391</v>
@@ -6376,34 +6376,34 @@
         <v>134.2518409469554</v>
       </c>
       <c r="H28" t="n">
-        <v>89.45512048199564</v>
+        <v>89.45512048199566</v>
       </c>
       <c r="I28" t="n">
-        <v>59.82800084044055</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J28" t="n">
         <v>113.2617651555979</v>
       </c>
       <c r="K28" t="n">
-        <v>259.1618167533679</v>
+        <v>259.161816753368</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067541</v>
+        <v>472.0647600067539</v>
       </c>
       <c r="M28" t="n">
-        <v>702.3541299874826</v>
+        <v>702.3541299874821</v>
       </c>
       <c r="N28" t="n">
-        <v>933.0723355902096</v>
+        <v>933.0723355902091</v>
       </c>
       <c r="O28" t="n">
-        <v>1143.831845939026</v>
+        <v>1143.831845939025</v>
       </c>
       <c r="P28" t="n">
         <v>1319.09619352029</v>
       </c>
       <c r="Q28" t="n">
-        <v>1393.621609119898</v>
+        <v>1393.621609119897</v>
       </c>
       <c r="R28" t="n">
         <v>1358.675752490042</v>
@@ -6415,19 +6415,19 @@
         <v>1140.938886220941</v>
       </c>
       <c r="U28" t="n">
-        <v>968.3245714658077</v>
+        <v>968.3245714658075</v>
       </c>
       <c r="V28" t="n">
-        <v>822.1651917799969</v>
+        <v>822.1651917799966</v>
       </c>
       <c r="W28" t="n">
-        <v>650.5847150531624</v>
+        <v>650.5847150531622</v>
       </c>
       <c r="X28" t="n">
-        <v>533.9081757043045</v>
+        <v>533.9081757043043</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.448941652348</v>
+        <v>426.4489416523479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1622.496875519834</v>
+        <v>1475.875787402048</v>
       </c>
       <c r="C29" t="n">
-        <v>1355.139041608408</v>
+        <v>1475.875787402048</v>
       </c>
       <c r="D29" t="n">
-        <v>1096.891001591398</v>
+        <v>1217.627747385038</v>
       </c>
       <c r="E29" t="n">
-        <v>937.4179522469115</v>
+        <v>937.4179522469111</v>
       </c>
       <c r="F29" t="n">
-        <v>637.8426863128482</v>
+        <v>637.8426863128478</v>
       </c>
       <c r="G29" t="n">
-        <v>336.3146245228025</v>
+        <v>336.3146245228022</v>
       </c>
       <c r="H29" t="n">
-        <v>118.0692748758781</v>
+        <v>118.0692748758782</v>
       </c>
       <c r="I29" t="n">
-        <v>59.82800084044055</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J29" t="n">
         <v>244.1224089663729</v>
       </c>
       <c r="K29" t="n">
-        <v>547.1139470116806</v>
+        <v>596.5586448642823</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.295183949753</v>
+        <v>1056.739881802355</v>
       </c>
       <c r="M29" t="n">
-        <v>1512.830214055968</v>
+        <v>1562.27491190857</v>
       </c>
       <c r="N29" t="n">
-        <v>2003.457436596811</v>
+        <v>2052.902134449412</v>
       </c>
       <c r="O29" t="n">
-        <v>2420.757884922771</v>
+        <v>2470.202582775373</v>
       </c>
       <c r="P29" t="n">
-        <v>2761.210645231951</v>
+        <v>2761.210645231954</v>
       </c>
       <c r="Q29" t="n">
-        <v>2967.938762771615</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R29" t="n">
-        <v>2991.400042022028</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S29" t="n">
-        <v>2918.746991408148</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T29" t="n">
-        <v>2918.746991408148</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U29" t="n">
-        <v>2918.746991408148</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V29" t="n">
-        <v>2696.343642059856</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W29" t="n">
-        <v>2448.384636673223</v>
+        <v>2301.763548555437</v>
       </c>
       <c r="X29" t="n">
-        <v>2180.930420950483</v>
+        <v>2034.309332832696</v>
       </c>
       <c r="Y29" t="n">
-        <v>1901.964490282087</v>
+        <v>1755.343402164301</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.1407613424846</v>
+        <v>924.4281438823803</v>
       </c>
       <c r="C30" t="n">
-        <v>777.4370885834393</v>
+        <v>762.724471123335</v>
       </c>
       <c r="D30" t="n">
-        <v>638.5984515736513</v>
+        <v>623.885834113547</v>
       </c>
       <c r="E30" t="n">
-        <v>491.5704416305226</v>
+        <v>476.8578241704183</v>
       </c>
       <c r="F30" t="n">
-        <v>356.8766435803969</v>
+        <v>342.1640261202926</v>
       </c>
       <c r="G30" t="n">
-        <v>228.1481436036815</v>
+        <v>213.4355261435772</v>
       </c>
       <c r="H30" t="n">
-        <v>128.2102861503795</v>
+        <v>113.4976686902753</v>
       </c>
       <c r="I30" t="n">
-        <v>59.82800084044055</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J30" t="n">
         <v>120.0821473735467</v>
@@ -6564,28 +6564,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R30" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S30" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T30" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U30" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V30" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W30" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X30" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y30" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>357.4694977237345</v>
+        <v>357.4694977237341</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4294529411812</v>
+        <v>302.4294529411811</v>
       </c>
       <c r="D31" t="n">
-        <v>263.9334845247104</v>
+        <v>263.9334845247103</v>
       </c>
       <c r="E31" t="n">
-        <v>226.5003950417956</v>
+        <v>226.5003950417955</v>
       </c>
       <c r="F31" t="n">
         <v>188.5956648233391</v>
@@ -6613,19 +6613,19 @@
         <v>134.2518409469555</v>
       </c>
       <c r="H31" t="n">
-        <v>89.45512048199564</v>
+        <v>89.45512048199572</v>
       </c>
       <c r="I31" t="n">
-        <v>59.82800084044055</v>
+        <v>59.8280008404406</v>
       </c>
       <c r="J31" t="n">
-        <v>113.2617651555979</v>
+        <v>113.2617651555977</v>
       </c>
       <c r="K31" t="n">
-        <v>259.1618167533682</v>
+        <v>259.1618167533679</v>
       </c>
       <c r="L31" t="n">
-        <v>472.0647600067543</v>
+        <v>472.0647600067541</v>
       </c>
       <c r="M31" t="n">
         <v>702.3541299874826</v>
@@ -6649,22 +6649,22 @@
         <v>1259.541914649496</v>
       </c>
       <c r="T31" t="n">
-        <v>1140.938886220942</v>
+        <v>1140.938886220941</v>
       </c>
       <c r="U31" t="n">
-        <v>968.3245714658079</v>
+        <v>968.3245714658076</v>
       </c>
       <c r="V31" t="n">
-        <v>822.1651917799969</v>
+        <v>822.1651917799966</v>
       </c>
       <c r="W31" t="n">
-        <v>650.5847150531624</v>
+        <v>650.5847150531621</v>
       </c>
       <c r="X31" t="n">
-        <v>533.9081757043045</v>
+        <v>533.9081757043042</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.4489416523479</v>
+        <v>426.4489416523477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1524.039328315951</v>
+        <v>1524.03932831595</v>
       </c>
       <c r="C32" t="n">
-        <v>1287.718783610435</v>
+        <v>1287.718783610434</v>
       </c>
       <c r="D32" t="n">
-        <v>1060.508032799335</v>
+        <v>1060.508032799334</v>
       </c>
       <c r="E32" t="n">
-        <v>811.3355268671181</v>
+        <v>811.3355268671172</v>
       </c>
       <c r="F32" t="n">
-        <v>542.7975501389649</v>
+        <v>542.797550138964</v>
       </c>
       <c r="G32" t="n">
-        <v>272.3067775548293</v>
+        <v>272.3067775548284</v>
       </c>
       <c r="H32" t="n">
         <v>85.09871711381403</v>
@@ -6707,25 +6707,25 @@
         <v>1146.065554698338</v>
       </c>
       <c r="M32" t="n">
-        <v>1539.304720951426</v>
+        <v>1682.020231955265</v>
       </c>
       <c r="N32" t="n">
         <v>2060.351590642981</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.356175115815</v>
+        <v>2508.071686119654</v>
       </c>
       <c r="P32" t="n">
-        <v>2603.707923122824</v>
+        <v>2800.304360527788</v>
       </c>
       <c r="Q32" t="n">
-        <v>2840.8556878132</v>
+        <v>2894.736614214325</v>
       </c>
       <c r="R32" t="n">
         <v>2894.736614214325</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.120852806355</v>
+        <v>2853.120852806356</v>
       </c>
       <c r="T32" t="n">
         <v>2774.375120499043</v>
@@ -6737,13 +6737,13 @@
         <v>2473.736938032332</v>
       </c>
       <c r="W32" t="n">
-        <v>2256.81522185161</v>
+        <v>2256.815221851609</v>
       </c>
       <c r="X32" t="n">
-        <v>2020.39829533478</v>
+        <v>2020.398295334779</v>
       </c>
       <c r="Y32" t="n">
-        <v>1772.469653872294</v>
+        <v>1772.469653872293</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>922.4948753262263</v>
+        <v>937.2074927863306</v>
       </c>
       <c r="C33" t="n">
-        <v>760.791202567181</v>
+        <v>775.5038200272853</v>
       </c>
       <c r="D33" t="n">
-        <v>621.9525655573931</v>
+        <v>636.6651830174974</v>
       </c>
       <c r="E33" t="n">
-        <v>474.9245556142643</v>
+        <v>489.6371730743685</v>
       </c>
       <c r="F33" t="n">
-        <v>340.2307575641387</v>
+        <v>354.9433750242429</v>
       </c>
       <c r="G33" t="n">
-        <v>211.5022575874233</v>
+        <v>226.2148750475275</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5644001341213</v>
+        <v>126.2770175942255</v>
       </c>
       <c r="I33" t="n">
         <v>57.8947322842865</v>
@@ -6801,28 +6801,28 @@
         <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.043507121434</v>
+        <v>2516.756124581538</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.244020134174</v>
+        <v>2363.956637594279</v>
       </c>
       <c r="T33" t="n">
-        <v>2160.55891630016</v>
+        <v>2175.271533760264</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.06412389847</v>
+        <v>1956.776741358574</v>
       </c>
       <c r="V33" t="n">
-        <v>1713.668501346804</v>
+        <v>1728.381118806908</v>
       </c>
       <c r="W33" t="n">
-        <v>1472.352632580114</v>
+        <v>1487.065250040218</v>
       </c>
       <c r="X33" t="n">
-        <v>1274.435644457908</v>
+        <v>1289.148261918013</v>
       </c>
       <c r="Y33" t="n">
-        <v>1081.914318107487</v>
+        <v>1096.626935567592</v>
       </c>
     </row>
     <row r="34">
@@ -6853,28 +6853,28 @@
         <v>57.8947322842865</v>
       </c>
       <c r="I34" t="n">
-        <v>59.27683947431083</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="J34" t="n">
-        <v>59.27683947431083</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="K34" t="n">
-        <v>235.5965382227933</v>
+        <v>91.49892002892992</v>
       </c>
       <c r="L34" t="n">
-        <v>336.2036176230528</v>
+        <v>192.1059994291894</v>
       </c>
       <c r="M34" t="n">
-        <v>596.9126347544936</v>
+        <v>310.0995055567911</v>
       </c>
       <c r="N34" t="n">
-        <v>715.334976504094</v>
+        <v>428.5218473063915</v>
       </c>
       <c r="O34" t="n">
-        <v>833.5333991053998</v>
+        <v>585.872825351241</v>
       </c>
       <c r="P34" t="n">
-        <v>896.5018828335376</v>
+        <v>791.5568200832179</v>
       </c>
       <c r="Q34" t="n">
         <v>896.5018828335376</v>
@@ -6932,7 +6932,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
@@ -6944,19 +6944,19 @@
         <v>711.1249637646204</v>
       </c>
       <c r="M35" t="n">
-        <v>1104.364130017708</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1482.695488705424</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>1827.875829091314</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,7 +7038,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
         <v>2357.162579672078</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
@@ -7108,7 +7108,7 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
         <v>629.3786802696717</v>
@@ -7126,19 +7126,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7175,10 +7175,10 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>643.5163109720804</v>
       </c>
       <c r="L38" t="n">
-        <v>1155.869458548059</v>
+        <v>991.4016840570267</v>
       </c>
       <c r="M38" t="n">
         <v>1549.108624801147</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208574</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7348,10 +7348,10 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R40" t="n">
         <v>629.3786802696717</v>
@@ -7406,25 +7406,25 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>915.7684941687087</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421797</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P41" t="n">
         <v>2220.500500038399</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7485,16 +7485,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X42" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
         <v>185.3119415069887</v>
@@ -7582,7 +7582,7 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
         <v>629.3786802696717</v>
@@ -7600,19 +7600,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>479.048536481048</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>991.4016840570266</v>
       </c>
       <c r="M44" t="n">
-        <v>1104.364130017708</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N44" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2220.500500038399</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7722,16 +7722,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749096</v>
+        <v>54.02211951749095</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962442</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458446</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
         <v>566.4101965415342</v>
@@ -7849,7 +7849,7 @@
         <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433856</v>
+        <v>69.77035169433853</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>398.4278090912587</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>418.0374059107918</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8061,13 +8061,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>235.1505737879239</v>
+        <v>445.3023064995597</v>
       </c>
       <c r="N3" t="n">
-        <v>607.852485380773</v>
+        <v>607.8524853807724</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>322.6512910759085</v>
+        <v>322.6512910759059</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,28 +8292,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>184.2697961453931</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>603.5966437773368</v>
+        <v>607.8524853807724</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8772,7 +8772,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>369.1271392019701</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>160.1351643640765</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9714,16 +9714,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>291.7022726996902</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>492.4512731824731</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>264.684255572312</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>179.7285562035138</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774087</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>151.5575495507349</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>102.8721692342599</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>18.25565158909313</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>90.44794843409893</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24500,10 +24500,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>121.6414717159639</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24680,13 +24680,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>119.5293783357034</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24731,16 +24731,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>102.4366314764168</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787001.1647353458</v>
+        <v>787001.1647353459</v>
       </c>
     </row>
     <row r="11">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="C2" t="n">
         <v>537336.8423459273</v>
       </c>
       <c r="D2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="E2" t="n">
-        <v>487121.9340739711</v>
+        <v>487121.9340739708</v>
       </c>
       <c r="F2" t="n">
-        <v>487121.934073971</v>
+        <v>487121.9340739708</v>
       </c>
       <c r="G2" t="n">
         <v>537336.8423459277</v>
       </c>
       <c r="H2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="I2" t="n">
-        <v>537336.8423459277</v>
+        <v>537336.8423459276</v>
       </c>
       <c r="J2" t="n">
         <v>516880.8665195719</v>
@@ -26341,19 +26341,19 @@
         <v>516880.8665195721</v>
       </c>
       <c r="L2" t="n">
-        <v>537336.842345927</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="M2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="N2" t="n">
+        <v>537336.8423459273</v>
+      </c>
+      <c r="O2" t="n">
+        <v>537336.8423459273</v>
+      </c>
+      <c r="P2" t="n">
         <v>537336.8423459274</v>
-      </c>
-      <c r="O2" t="n">
-        <v>537336.8423459275</v>
-      </c>
-      <c r="P2" t="n">
-        <v>537336.8423459273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167942.6502382272</v>
+        <v>167942.650238227</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.640144976651</v>
+        <v>7506.640144976845</v>
       </c>
       <c r="E3" t="n">
         <v>116101.0852352527</v>
@@ -26378,7 +26378,7 @@
         <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>48202.39618561631</v>
+        <v>48202.39618561629</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669708</v>
+        <v>72783.92923669706</v>
       </c>
       <c r="M3" t="n">
         <v>17577.5866563178</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.73622095065</v>
+        <v>42541.73622095067</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203200.5134708786</v>
+        <v>203200.5134708787</v>
       </c>
       <c r="C4" t="n">
-        <v>203200.5134708786</v>
+        <v>203200.5134708787</v>
       </c>
       <c r="D4" t="n">
         <v>196979.4332140583</v>
@@ -26439,13 +26439,13 @@
         <v>189725.4452326117</v>
       </c>
       <c r="J4" t="n">
-        <v>171301.1837600967</v>
+        <v>171301.1837600968</v>
       </c>
       <c r="K4" t="n">
-        <v>171301.1837600967</v>
+        <v>171301.1837600968</v>
       </c>
       <c r="L4" t="n">
-        <v>187728.3140756456</v>
+        <v>187728.3140756455</v>
       </c>
       <c r="M4" t="n">
         <v>187302.9854962236</v>
@@ -26457,7 +26457,7 @@
         <v>187302.9854962236</v>
       </c>
       <c r="P4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64096.75053423434</v>
+        <v>64096.75053423429</v>
       </c>
       <c r="C5" t="n">
-        <v>64096.75053423434</v>
+        <v>64096.75053423429</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26491,10 +26491,10 @@
         <v>51703.28829805431</v>
       </c>
       <c r="J5" t="n">
-        <v>55005.24122284442</v>
+        <v>55005.24122284445</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284442</v>
+        <v>55005.24122284445</v>
       </c>
       <c r="L5" t="n">
         <v>56119.13824775648</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264636</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102096.9281025871</v>
+        <v>102096.9281025874</v>
       </c>
       <c r="C6" t="n">
         <v>270039.5783408143</v>
@@ -26528,40 +26528,40 @@
         <v>267284.7343499808</v>
       </c>
       <c r="E6" t="n">
-        <v>175351.9203913374</v>
+        <v>175172.5814332229</v>
       </c>
       <c r="F6" t="n">
-        <v>291453.00562659</v>
+        <v>291273.6666684756</v>
       </c>
       <c r="G6" t="n">
-        <v>247705.7126296454</v>
+        <v>247705.7126296455</v>
       </c>
       <c r="H6" t="n">
-        <v>295908.1088152615</v>
+        <v>295908.1088152616</v>
       </c>
       <c r="I6" t="n">
-        <v>295908.1088152617</v>
+        <v>295908.1088152616</v>
       </c>
       <c r="J6" t="n">
-        <v>80905.39478076053</v>
+        <v>80832.33772423776</v>
       </c>
       <c r="K6" t="n">
-        <v>290574.441536631</v>
+        <v>290501.3844801081</v>
       </c>
       <c r="L6" t="n">
-        <v>220705.4607858279</v>
+        <v>220705.4607858282</v>
       </c>
       <c r="M6" t="n">
-        <v>279653.4533007398</v>
+        <v>279653.4533007396</v>
       </c>
       <c r="N6" t="n">
+        <v>297231.0399570573</v>
+      </c>
+      <c r="O6" t="n">
+        <v>254689.3037361067</v>
+      </c>
+      <c r="P6" t="n">
         <v>297231.0399570575</v>
-      </c>
-      <c r="O6" t="n">
-        <v>254689.3037361069</v>
-      </c>
-      <c r="P6" t="n">
-        <v>297231.0399570573</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130647</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="C4" t="n">
-        <v>501.1373443130647</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26811,25 +26811,25 @@
         <v>610.2289252924999</v>
       </c>
       <c r="J4" t="n">
-        <v>747.8500105055069</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="K4" t="n">
-        <v>747.8500105055069</v>
+        <v>747.8500105055075</v>
       </c>
       <c r="L4" t="n">
         <v>723.6841535535813</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>60.25299523202038</v>
+        <v>60.25299523202037</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.17717027618832</v>
+        <v>53.17717027618833</v>
       </c>
       <c r="K2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>90.97991154587135</v>
+        <v>90.97991154587133</v>
       </c>
       <c r="M2" t="n">
         <v>21.97198332039724</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618832</v>
+        <v>53.17717027618833</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130647</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.1658569519256</v>
+        <v>24.16585695192623</v>
       </c>
       <c r="E4" t="n">
         <v>84.92572402750955</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>60.25299523202038</v>
+        <v>60.25299523202037</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618832</v>
+        <v>53.17717027618833</v>
       </c>
       <c r="P2" t="n">
         <v>2.842170943040401e-14</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>501.1373443130647</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.1658569519256</v>
+        <v>24.16585695192623</v>
       </c>
       <c r="M4" t="n">
         <v>84.92572402750955</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>30.27679108273753</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>178.7092422587309</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27461,19 +27461,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>41.87264472189296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>78.83916550107961</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>129.5378654583726</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>151.0469753189509</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27594,7 +27594,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27616,25 +27616,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>316.1058981163125</v>
       </c>
       <c r="F5" t="n">
-        <v>394.9739259750321</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>37.64735273741275</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>83.63102237497145</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>133.5226877096453</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>243.6240755350414</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>301.6407289842107</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>119.836411286132</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>92.28778154451683</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>124.9310703838087</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>93.47784511364529</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28111,13 +28111,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>85.71296083956673</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>113.4301655082087</v>
@@ -28126,7 +28126,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>109.4112227086703</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.0963650991455</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,10 +28226,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>11.85262580694084</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28348,22 +28348,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
-        <v>85.71296083956673</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>85.71296083956645</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>66.0963650991457</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>66.0963650991455</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28591,16 +28591,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>76.04300194679746</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="N17" t="n">
-        <v>76.04300194679757</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>173.6831607402291</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>125.2827913151496</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>66.0963650991455</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6831607402291</v>
+        <v>156.1147383092376</v>
       </c>
       <c r="T19" t="n">
         <v>173.6831607402291</v>
@@ -28779,7 +28779,7 @@
         <v>173.6831607402291</v>
       </c>
       <c r="V19" t="n">
-        <v>156.1147383092375</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="W19" t="n">
         <v>173.6831607402291</v>
@@ -28822,13 +28822,13 @@
         <v>173.6831607402291</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>173.6831607402291</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>76.04300194679757</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>76.04300194679774</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.6831607402291</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>173.6831607402291</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>66.0963650991457</v>
+        <v>26.34431243638068</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -29062,17 +29062,17 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>76.0430019467976</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>173.6831607402291</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>76.04300194679763</v>
       </c>
       <c r="R23" t="n">
         <v>173.6831607402291</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>26.34431243638069</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>57.58432885831001</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29305,7 +29305,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>63.48602626315642</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N26" t="n">
         <v>113.4301655082087</v>
@@ -29314,7 +29314,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315915</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29363,10 +29363,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29536,7 +29536,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>63.4860262631565</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L29" t="n">
         <v>113.4301655082087</v>
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315915</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29779,22 +29779,22 @@
         <v>144.1570818220597</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>144.1570818220597</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>144.1570818220597</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>10.2978298494499</v>
+        <v>64.72300803240461</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.1570818220597</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>144.1570818220597</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>144.1570818220597</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550316</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29925,31 +29925,31 @@
         <v>144.1570818220597</v>
       </c>
       <c r="I34" t="n">
-        <v>144.1570818220597</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>59.48215307995937</v>
+      </c>
+      <c r="P34" t="n">
         <v>144.1570818220597</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="Q34" t="n">
         <v>144.1570818220597</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>19.93411727840008</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>144.1570818220597</v>
@@ -30016,22 +30016,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="O35" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30180,10 +30180,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>46.68561682995293</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
@@ -30247,13 +30247,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L38" t="n">
-        <v>116.9787331327009</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>66.73508319210941</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,25 +30481,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>40.58157162934947</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>40.58157162934941</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>166.1290651424569</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30654,10 +30654,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P43" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30721,28 +30721,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>40.58157162934964</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68561682995332</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>46.68561682995329</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>219.604805117212</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>230.1605968596353</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>119.666671226284</v>
+        <v>329.8184039379198</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1373443130647</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>134.774482024752</v>
+        <v>134.7744820247494</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>71.69436257424526</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>496.8815027096284</v>
+        <v>501.1373443130641</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>158.43876313533</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
         <v>510.6414445517319</v>
@@ -35422,7 +35422,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>417.4966615701188</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
@@ -35431,7 +35431,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910352</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>256.5517056308223</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>46.39997291918402</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.9734993082397</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536085</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766761</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L14" t="n">
-        <v>437.1123275920377</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>393.7983997010149</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
@@ -35668,7 +35668,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910356</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>427.4423686992684</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837523</v>
       </c>
       <c r="N17" t="n">
-        <v>458.1958895101468</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>481.7685996016776</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
@@ -36118,13 +36118,13 @@
         <v>2.594133936937169</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>246.4089630359924</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>427.4423686992685</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36136,10 +36136,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>306.5045135185687</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.0692755751149</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>83.95125710112393</v>
@@ -36358,16 +36358,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>318.609034315265</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>525.0825274927</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>555.8360483035783</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
@@ -36376,7 +36376,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>171.4291167816835</v>
       </c>
       <c r="R23" t="n">
         <v>83.95125710112393</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>179.7061035330235</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>376.9673706208332</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36601,7 +36601,7 @@
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>460.6973053066796</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
@@ -36610,7 +36610,7 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>293.9475378349301</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>306.0520586316239</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36847,7 +36847,7 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799797</v>
+        <v>293.9475378349301</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
@@ -37075,22 +37075,22 @@
         <v>495.5564485745306</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>541.3683608655829</v>
       </c>
       <c r="N32" t="n">
-        <v>526.309969385409</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>308.0854388614484</v>
+        <v>452.2425206835081</v>
       </c>
       <c r="P32" t="n">
-        <v>240.7593414212208</v>
+        <v>295.1845196041755</v>
       </c>
       <c r="Q32" t="n">
-        <v>239.5431966569456</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>54.42517818295451</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.396067868711441</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>178.100705806548</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>263.3424415469099</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>119.392346061925</v>
+        <v>158.9403818634843</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>207.7616108403807</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>106.0051138892118</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,22 +37312,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960504</v>
       </c>
       <c r="O35" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
         <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>63.604529018321</v>
+        <v>110.2901458482739</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011683</v>
       </c>
       <c r="L38" t="n">
-        <v>468.3780998851719</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37716,13 +37716,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.58311525926155</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>391.9809383818204</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>422.7344591926987</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
         <v>261.5151799773428</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37950,10 +37950,10 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P43" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011683</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>348.6670104907981</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38181,13 +38181,13 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>165.8709765548035</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134782</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
